--- a/data/sergei-dragunov-tekken-8-frame-data.xlsx
+++ b/data/sergei-dragunov-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -520,15 +516,11 @@
         <v>13</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -552,15 +544,11 @@
         <v>35</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+15 (+6)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -590,15 +578,11 @@
       <c r="D5" t="n">
         <v>21</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -622,15 +606,11 @@
         <v>13</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -654,15 +634,11 @@
         <v>33</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -688,15 +664,11 @@
       <c r="D8" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -720,15 +692,11 @@
         <v>19</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -756,15 +724,11 @@
         <v>39</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+41</t>
-        </is>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>41</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -788,15 +752,11 @@
         <v>59</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -822,15 +782,11 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -850,15 +806,11 @@
         <v>20</v>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -882,15 +834,11 @@
         <v>44</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -914,15 +862,11 @@
         <v>34</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -944,15 +888,11 @@
       <c r="D16" t="n">
         <v>16</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -978,15 +918,11 @@
       <c r="D17" t="n">
         <v>12</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -1012,15 +948,11 @@
       <c r="D18" t="n">
         <v>15</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1040,15 +972,11 @@
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1072,15 +1000,11 @@
         <v>42</v>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+12 (+3)</t>
-        </is>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1104,15 +1028,11 @@
         <v>42</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+42 (-16)</t>
-        </is>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>42</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -1138,15 +1058,11 @@
       <c r="D22" t="n">
         <v>25</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+41</t>
-        </is>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1172,15 +1088,11 @@
       <c r="D23" t="n">
         <v>12</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E23" t="n">
+        <v>9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1204,15 +1116,11 @@
         <v>27</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1236,15 +1144,11 @@
         <v>28</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1268,15 +1172,11 @@
         <v>33</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+29 (+20)</t>
-        </is>
+      <c r="E26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1306,15 +1206,11 @@
       <c r="D27" t="n">
         <v>17</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1336,15 +1232,11 @@
       <c r="D28" t="n">
         <v>22</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="E28" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1368,15 +1260,11 @@
         <v>32</v>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1397,10 +1285,8 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="F30" t="n">
+        <v>-5</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -1426,15 +1312,11 @@
       <c r="D31" t="n">
         <v>15</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1454,15 +1336,11 @@
         <v>25</v>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1486,15 +1364,11 @@
         <v>42</v>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E33" t="n">
+        <v>26</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1524,15 +1398,11 @@
       <c r="D34" t="n">
         <v>14</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1558,15 +1428,11 @@
       <c r="D35" t="n">
         <v>28</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1596,15 +1462,11 @@
       <c r="D36" t="n">
         <v>14</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1624,15 +1486,11 @@
         <v>30</v>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1652,15 +1510,11 @@
         <v>47</v>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1688,15 +1542,11 @@
         <v>47</v>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1720,15 +1570,11 @@
         <v>35</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+21 (+12)</t>
-        </is>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>21</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1753,10 +1599,8 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1778,15 +1622,11 @@
       <c r="D42" t="n">
         <v>16</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1808,15 +1648,11 @@
       <c r="D43" t="n">
         <v>18</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>+1c</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1833,10 +1669,8 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F44" t="n">
+        <v>5</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1863,10 +1697,8 @@
         <v>12</v>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F45" t="n">
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1892,15 +1724,11 @@
       <c r="D46" t="n">
         <v>18</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1926,15 +1754,11 @@
       <c r="D47" t="n">
         <v>17</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E47" t="n">
+        <v>14</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1958,15 +1782,11 @@
         <v>31</v>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1990,15 +1810,11 @@
         <v>55</v>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-2c</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -2018,15 +1834,11 @@
         <v>31</v>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E50" t="n">
+        <v>11</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2056,15 +1868,11 @@
       <c r="D51" t="n">
         <v>15</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E51" t="n">
+        <v>15</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2088,15 +1896,11 @@
         <v>20</v>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E52" t="n">
+        <v>11</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2120,15 +1924,11 @@
         <v>41</v>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+9 (+0)</t>
-        </is>
+      <c r="E53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2152,15 +1952,11 @@
         <v>35</v>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+16 (+6)</t>
-        </is>
+      <c r="E54" t="n">
+        <v>14</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2186,15 +1982,11 @@
       <c r="D55" t="n">
         <v>14</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2214,15 +2006,11 @@
         <v>22</v>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2250,15 +2038,11 @@
         <v>42</v>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+29 (+23)</t>
-        </is>
+      <c r="E57" t="n">
+        <v>14</v>
+      </c>
+      <c r="F57" t="n">
+        <v>29</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2284,15 +2068,11 @@
       <c r="D58" t="n">
         <v>27</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E58" t="n">
+        <v>26</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2319,10 +2099,8 @@
         <v>19</v>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F59" t="n">
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2348,15 +2126,11 @@
       <c r="D60" t="n">
         <v>20</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E60" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2382,15 +2156,11 @@
       <c r="D61" t="n">
         <v>13</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2412,15 +2182,11 @@
       <c r="D62" t="n">
         <v>20</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2444,15 +2210,11 @@
         <v>36</v>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+22 (+13)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2482,15 +2244,11 @@
       <c r="D64" t="n">
         <v>15</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E64" t="n">
+        <v>12</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2512,15 +2270,11 @@
       <c r="D65" t="n">
         <v>17</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2542,15 +2296,11 @@
       <c r="D66" t="n">
         <v>22</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2606,15 +2356,11 @@
       <c r="D68" t="n">
         <v>17</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>35</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2640,15 +2386,11 @@
       <c r="D69" t="n">
         <v>11</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2674,15 +2416,11 @@
       <c r="D70" t="n">
         <v>19</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2704,15 +2442,11 @@
       <c r="D71" t="n">
         <v>11</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2738,15 +2472,11 @@
       <c r="D72" t="n">
         <v>19</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+28 (+23)</t>
-        </is>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2776,15 +2506,11 @@
       <c r="D73" t="n">
         <v>20</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E73" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2804,15 +2530,11 @@
         <v>38</v>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E74" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" t="n">
+        <v>22</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2836,15 +2558,11 @@
         <v>25</v>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2870,15 +2588,11 @@
       <c r="D76" t="n">
         <v>14</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -2900,15 +2614,11 @@
       <c r="D77" t="n">
         <v>30</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -2934,15 +2644,11 @@
       <c r="D78" t="n">
         <v>20</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E78" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2972,15 +2678,11 @@
       <c r="D79" t="n">
         <v>22</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+21 (+12)</t>
-        </is>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>21</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -3006,15 +2708,11 @@
       <c r="D80" t="n">
         <v>25</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -3056,15 +2754,11 @@
       <c r="D82" t="n">
         <v>16</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-2</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3085,10 +2779,8 @@
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F83" t="n">
+        <v>7</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3109,10 +2801,8 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F84" t="n">
+        <v>-2</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3134,15 +2824,11 @@
       <c r="D85" t="n">
         <v>19</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E85" t="n">
+        <v>9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3164,15 +2850,11 @@
       <c r="D86" t="n">
         <v>15</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E86" t="n">
+        <v>12</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3202,15 +2884,11 @@
       <c r="D87" t="n">
         <v>21</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+30 (+4)</t>
-        </is>
+      <c r="E87" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>30</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -3236,15 +2914,11 @@
       <c r="D88" t="n">
         <v>26</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3266,15 +2940,11 @@
       <c r="D89" t="n">
         <v>15</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+32 (-26)</t>
-        </is>
+      <c r="E89" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>32</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3303,10 +2973,8 @@
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F90" t="n">
+        <v>-2</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -3328,15 +2996,11 @@
       <c r="D91" t="n">
         <v>20</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3362,15 +3026,11 @@
       <c r="D92" t="n">
         <v>15</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E92" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3395,10 +3055,8 @@
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F93" t="n">
+        <v>-2</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3422,15 +3080,11 @@
         <v>40</v>
       </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3456,15 +3110,11 @@
       <c r="D95" t="n">
         <v>24</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E95" t="n">
+        <v>11</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3486,15 +3136,11 @@
       <c r="D96" t="n">
         <v>26</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+68 (+52)</t>
-        </is>
+      <c r="E96" t="n">
+        <v>15</v>
+      </c>
+      <c r="F96" t="n">
+        <v>68</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3534,15 +3180,11 @@
         <v>40</v>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3568,15 +3210,11 @@
       <c r="D99" t="n">
         <v>15</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+51</t>
-        </is>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>51</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3598,15 +3236,11 @@
       <c r="D100" t="n">
         <v>18</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E100" t="n">
+        <v>14</v>
+      </c>
+      <c r="F100" t="n">
+        <v>36</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3632,15 +3266,11 @@
       <c r="D101" t="n">
         <v>17</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E101" t="n">
+        <v>16</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3666,15 +3296,11 @@
       <c r="D102" t="n">
         <v>17</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+27</t>
-        </is>
+      <c r="E102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F102" t="n">
+        <v>27</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -3696,15 +3322,11 @@
       <c r="D103" t="n">
         <v>19</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E103" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>18</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3730,15 +3352,11 @@
       <c r="D104" t="n">
         <v>20</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3758,15 +3376,11 @@
         <v>36</v>
       </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3790,15 +3404,11 @@
         <v>64</v>
       </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+45</t>
-        </is>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>45</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3824,15 +3434,11 @@
       <c r="D107" t="n">
         <v>18</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E107" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3873,10 +3479,8 @@
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F109" t="n">
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -3901,10 +3505,8 @@
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F110" t="n">
+        <v>3</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -3929,10 +3531,8 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F111" t="n">
+        <v>3</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -3958,15 +3558,11 @@
       <c r="D112" t="n">
         <v>17</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E112" t="n">
+        <v>17</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-6</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -3992,15 +3588,11 @@
       <c r="D113" t="n">
         <v>22</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="E113" t="n">
+        <v>9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -4023,10 +3615,8 @@
         <v>63</v>
       </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+26 (-32)</t>
-        </is>
+      <c r="F114" t="n">
+        <v>26</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4052,15 +3642,11 @@
       <c r="D115" t="n">
         <v>20</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E115" t="n">
+        <v>5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4090,15 +3676,11 @@
       <c r="D116" t="n">
         <v>17</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+14 (+4)</t>
-        </is>
+      <c r="E116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F116" t="n">
+        <v>14</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
@@ -4124,15 +3706,11 @@
       <c r="D117" t="n">
         <v>22</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -4154,15 +3732,11 @@
       <c r="D118" t="n">
         <v>15</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+37 (+29)</t>
-        </is>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>37</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4188,15 +3762,11 @@
       <c r="D119" t="n">
         <v>12</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E119" t="n">
+        <v>6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-5</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4222,15 +3792,11 @@
       <c r="D120" t="n">
         <v>30</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+42</t>
-        </is>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>42</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -4252,15 +3818,11 @@
       <c r="D121" t="n">
         <v>17</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+20 (+10)</t>
-        </is>
+      <c r="E121" t="n">
+        <v>7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4287,10 +3849,8 @@
         <v>38</v>
       </c>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="F122" t="n">
+        <v>-12</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -4312,15 +3872,11 @@
       <c r="D123" t="n">
         <v>22</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="E123" t="n">
+        <v>9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -4342,15 +3898,11 @@
       <c r="D124" t="n">
         <v>23</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
+      <c r="E124" t="n">
+        <v>13</v>
+      </c>
+      <c r="F124" t="n">
+        <v>32</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4372,15 +3924,11 @@
       <c r="D125" t="n">
         <v>17</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E125" t="n">
+        <v>15</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4406,15 +3954,11 @@
       <c r="D126" t="n">
         <v>12</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E126" t="n">
+        <v>3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4436,15 +3980,11 @@
       <c r="D127" t="n">
         <v>12</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+19 (+9)</t>
-        </is>
+      <c r="E127" t="n">
+        <v>14</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4468,15 +4008,11 @@
         <v>25</v>
       </c>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E128" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4500,15 +4036,11 @@
         <v>28</v>
       </c>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+15 (+6)</t>
-        </is>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4538,15 +4070,11 @@
       <c r="D130" t="n">
         <v>15</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E130" t="n">
+        <v>12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>28</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -4568,15 +4096,11 @@
       <c r="D131" t="n">
         <v>16</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+15 (+6)</t>
-        </is>
+      <c r="E131" t="n">
+        <v>9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4606,15 +4130,11 @@
       <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4640,15 +4160,11 @@
       <c r="D133" t="n">
         <v>19</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+28 (+23)</t>
-        </is>
+      <c r="E133" t="n">
+        <v>7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>28</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4678,15 +4194,11 @@
       <c r="D134" t="n">
         <v>20</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E134" t="n">
+        <v>6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -4706,15 +4218,11 @@
         <v>38</v>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E135" t="n">
+        <v>6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>22</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
@@ -4738,15 +4246,11 @@
         <v>25</v>
       </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E136" t="n">
+        <v>10</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
@@ -4772,15 +4276,11 @@
       <c r="D137" t="n">
         <v>14</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E137" t="n">
+        <v>7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -4802,15 +4302,11 @@
       <c r="D138" t="n">
         <v>30</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E138" t="n">
+        <v>9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
@@ -4836,15 +4332,11 @@
       <c r="D139" t="n">
         <v>20</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E139" t="n">
+        <v>11</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4874,15 +4366,11 @@
       <c r="D140" t="n">
         <v>22</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+21 (+12)</t>
-        </is>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
@@ -4908,15 +4396,11 @@
       <c r="D141" t="n">
         <v>25</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E141" t="n">
+        <v>12</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -4958,15 +4442,11 @@
       <c r="D143" t="n">
         <v>16</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-2</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -4987,10 +4467,8 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F144" t="n">
+        <v>7</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -5011,10 +4489,8 @@
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F145" t="n">
+        <v>-2</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -5036,15 +4512,11 @@
       <c r="D146" t="n">
         <v>19</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E146" t="n">
+        <v>9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -5066,15 +4538,11 @@
       <c r="D147" t="n">
         <v>15</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E147" t="n">
+        <v>12</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5104,15 +4572,11 @@
       <c r="D148" t="n">
         <v>21</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+30 (+4)</t>
-        </is>
+      <c r="E148" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
@@ -5138,15 +4602,11 @@
       <c r="D149" t="n">
         <v>26</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -5168,15 +4628,11 @@
       <c r="D150" t="n">
         <v>15</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>+32 (-26)</t>
-        </is>
+      <c r="E150" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>32</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5205,10 +4661,8 @@
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F151" t="n">
+        <v>-2</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -5230,15 +4684,11 @@
       <c r="D152" t="n">
         <v>20</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E152" t="n">
+        <v>7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
@@ -5264,15 +4714,11 @@
       <c r="D153" t="n">
         <v>15</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E153" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
@@ -5297,10 +4743,8 @@
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="F154" t="n">
+        <v>-2</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
@@ -5324,15 +4768,11 @@
         <v>40</v>
       </c>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E155" t="n">
+        <v>3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
@@ -5358,15 +4798,11 @@
       <c r="D156" t="n">
         <v>24</v>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E156" t="n">
+        <v>11</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -5388,15 +4824,11 @@
       <c r="D157" t="n">
         <v>26</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>+68 (+52)</t>
-        </is>
+      <c r="E157" t="n">
+        <v>15</v>
+      </c>
+      <c r="F157" t="n">
+        <v>68</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
@@ -5436,15 +4868,11 @@
         <v>40</v>
       </c>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
@@ -5470,15 +4898,11 @@
       <c r="D160" t="n">
         <v>15</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>+51</t>
-        </is>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>51</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -5500,15 +4924,11 @@
       <c r="D161" t="n">
         <v>18</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E161" t="n">
+        <v>14</v>
+      </c>
+      <c r="F161" t="n">
+        <v>36</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
@@ -5534,15 +4954,11 @@
       <c r="D162" t="n">
         <v>17</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E162" t="n">
+        <v>16</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5568,15 +4984,11 @@
       <c r="D163" t="n">
         <v>17</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+27</t>
-        </is>
+      <c r="E163" t="n">
+        <v>13</v>
+      </c>
+      <c r="F163" t="n">
+        <v>27</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -5598,15 +5010,11 @@
       <c r="D164" t="n">
         <v>19</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E164" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
@@ -5632,15 +5040,11 @@
       <c r="D165" t="n">
         <v>20</v>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E165" t="n">
+        <v>10</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -5660,15 +5064,11 @@
         <v>36</v>
       </c>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E166" t="n">
+        <v>4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
@@ -5692,15 +5092,11 @@
         <v>64</v>
       </c>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>+45</t>
-        </is>
+      <c r="E167" t="n">
+        <v>10</v>
+      </c>
+      <c r="F167" t="n">
+        <v>45</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
@@ -5726,15 +5122,11 @@
       <c r="D168" t="n">
         <v>18</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E168" t="n">
+        <v>9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
@@ -5775,10 +5167,8 @@
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F170" t="n">
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
@@ -5803,10 +5193,8 @@
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F171" t="n">
+        <v>3</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
@@ -5831,10 +5219,8 @@
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F172" t="n">
+        <v>3</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
@@ -5860,15 +5246,11 @@
       <c r="D173" t="n">
         <v>17</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E173" t="n">
+        <v>17</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-6</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
@@ -5894,15 +5276,11 @@
       <c r="D174" t="n">
         <v>22</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="E174" t="n">
+        <v>9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>21</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -5925,10 +5303,8 @@
         <v>63</v>
       </c>
       <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>+26 (-32)</t>
-        </is>
+      <c r="F175" t="n">
+        <v>26</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
@@ -5954,15 +5330,11 @@
       <c r="D176" t="n">
         <v>20</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E176" t="n">
+        <v>5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>9</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5992,15 +5364,11 @@
       <c r="D177" t="n">
         <v>17</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>+14 (+4)</t>
-        </is>
+      <c r="E177" t="n">
+        <v>13</v>
+      </c>
+      <c r="F177" t="n">
+        <v>14</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
@@ -6026,15 +5394,11 @@
       <c r="D178" t="n">
         <v>22</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E178" t="n">
+        <v>9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>17</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
@@ -6056,15 +5420,11 @@
       <c r="D179" t="n">
         <v>15</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>+37 (+29)</t>
-        </is>
+      <c r="E179" t="n">
+        <v>9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>37</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
@@ -6090,15 +5450,11 @@
       <c r="D180" t="n">
         <v>12</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E180" t="n">
+        <v>6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-5</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
@@ -6124,15 +5480,11 @@
       <c r="D181" t="n">
         <v>30</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>+42</t>
-        </is>
+      <c r="E181" t="n">
+        <v>5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>42</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
@@ -6154,15 +5506,11 @@
       <c r="D182" t="n">
         <v>17</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>+20 (+10)</t>
-        </is>
+      <c r="E182" t="n">
+        <v>7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
@@ -6189,10 +5537,8 @@
         <v>38</v>
       </c>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="F183" t="n">
+        <v>-12</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
@@ -6214,15 +5560,11 @@
       <c r="D184" t="n">
         <v>22</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="E184" t="n">
+        <v>9</v>
+      </c>
+      <c r="F184" t="n">
+        <v>25</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
@@ -6244,15 +5586,11 @@
       <c r="D185" t="n">
         <v>23</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
+      <c r="E185" t="n">
+        <v>13</v>
+      </c>
+      <c r="F185" t="n">
+        <v>32</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -6274,15 +5612,11 @@
       <c r="D186" t="n">
         <v>17</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E186" t="n">
+        <v>15</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
@@ -6308,15 +5642,11 @@
       <c r="D187" t="n">
         <v>12</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
@@ -6338,15 +5668,11 @@
       <c r="D188" t="n">
         <v>12</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>+19 (+9)</t>
-        </is>
+      <c r="E188" t="n">
+        <v>14</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
@@ -6370,15 +5696,11 @@
         <v>25</v>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E189" t="n">
+        <v>7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
@@ -6402,15 +5724,11 @@
         <v>28</v>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>+15 (+6)</t>
-        </is>
+      <c r="E190" t="n">
+        <v>13</v>
+      </c>
+      <c r="F190" t="n">
+        <v>15</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6440,15 +5758,11 @@
       <c r="D191" t="n">
         <v>15</v>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E191" t="n">
+        <v>12</v>
+      </c>
+      <c r="F191" t="n">
+        <v>28</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
@@ -6470,15 +5784,11 @@
       <c r="D192" t="n">
         <v>16</v>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>+15 (+6)</t>
-        </is>
+      <c r="E192" t="n">
+        <v>9</v>
+      </c>
+      <c r="F192" t="n">
+        <v>15</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6508,15 +5818,11 @@
       <c r="D193" t="n">
         <v>11</v>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E193" t="n">
+        <v>5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">

--- a/data/sergei-dragunov-tekken-8-frame-data.xlsx
+++ b/data/sergei-dragunov-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
@@ -579,7 +579,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="n">
         <v>19</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F10" t="n">
         <v>41</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>-2</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F14" t="n">
         <v>40</v>
@@ -863,7 +863,7 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F21" t="n">
         <v>42</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F22" t="n">
         <v>41</v>
@@ -1089,7 +1089,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F23" t="n">
         <v>-1</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F24" t="n">
         <v>8</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>29</v>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F29" t="n">
         <v>18</v>
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F32" t="n">
         <v>6</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F33" t="n">
         <v>-2</v>
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F34" t="n">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F35" t="n">
         <v>26</v>
@@ -1463,7 +1463,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F36" t="n">
         <v>7</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F40" t="n">
         <v>21</v>
@@ -1623,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F42" t="n">
         <v>10</v>
@@ -1649,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>8</v>
@@ -1725,7 +1725,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F46" t="n">
         <v>-1</v>
@@ -1755,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F47" t="n">
         <v>-3</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F48" t="n">
         <v>8</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F49" t="n">
         <v>20</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F50" t="n">
         <v>5</v>
@@ -1869,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F52" t="n">
         <v>5</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F54" t="n">
         <v>16</v>
@@ -1983,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F55" t="n">
         <v>4</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F57" t="n">
         <v>29</v>
@@ -2069,7 +2069,7 @@
         <v>27</v>
       </c>
       <c r="E58" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F58" t="n">
         <v>-2</v>
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F60" t="n">
         <v>7</v>
@@ -2157,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F61" t="n">
         <v>7</v>
@@ -2183,7 +2183,7 @@
         <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F63" t="n">
         <v>22</v>
@@ -2245,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F64" t="n">
         <v>28</v>
@@ -2271,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F65" t="n">
         <v>5</v>
@@ -2297,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F66" t="n">
         <v>12</v>
@@ -2357,7 +2357,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F68" t="n">
         <v>35</v>
@@ -2387,7 +2387,7 @@
         <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>19</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -2443,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F71" t="n">
         <v>-1</v>
@@ -2473,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F72" t="n">
         <v>28</v>
@@ -2507,7 +2507,7 @@
         <v>20</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F73" t="n">
         <v>5</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F74" t="n">
         <v>22</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -2589,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F76" t="n">
         <v>8</v>
@@ -2615,7 +2615,7 @@
         <v>30</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F77" t="n">
         <v>20</v>
@@ -2645,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>22</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
@@ -2755,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F82" t="n">
         <v>-2</v>
@@ -2825,7 +2825,7 @@
         <v>19</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F86" t="n">
         <v>15</v>
@@ -2885,7 +2885,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>30</v>
@@ -2915,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F88" t="n">
         <v>13</v>
@@ -2941,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>32</v>
@@ -2997,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>2</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>24</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>26</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F96" t="n">
         <v>68</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F99" t="n">
         <v>51</v>
@@ -3237,7 +3237,7 @@
         <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F100" t="n">
         <v>36</v>
@@ -3267,7 +3267,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>17</v>
       </c>
       <c r="E102" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F102" t="n">
         <v>27</v>
@@ -3323,7 +3323,7 @@
         <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
         <v>18</v>
@@ -3353,7 +3353,7 @@
         <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F105" t="n">
         <v>2</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F106" t="n">
         <v>45</v>
@@ -3435,7 +3435,7 @@
         <v>18</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>17</v>
       </c>
       <c r="E112" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F112" t="n">
         <v>-6</v>
@@ -3589,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="E113" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F113" t="n">
         <v>21</v>
@@ -3643,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F115" t="n">
         <v>9</v>
@@ -3677,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F116" t="n">
         <v>14</v>
@@ -3707,7 +3707,7 @@
         <v>22</v>
       </c>
       <c r="E117" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F117" t="n">
         <v>17</v>
@@ -3733,7 +3733,7 @@
         <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F118" t="n">
         <v>37</v>
@@ -3763,7 +3763,7 @@
         <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F119" t="n">
         <v>-5</v>
@@ -3793,7 +3793,7 @@
         <v>30</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F120" t="n">
         <v>42</v>
@@ -3819,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F121" t="n">
         <v>20</v>
@@ -3873,7 +3873,7 @@
         <v>22</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F123" t="n">
         <v>25</v>
@@ -3899,7 +3899,7 @@
         <v>23</v>
       </c>
       <c r="E124" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F124" t="n">
         <v>32</v>
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="E125" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F126" t="n">
         <v>4</v>
@@ -3981,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F127" t="n">
         <v>19</v>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F128" t="n">
         <v>10</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4071,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="E130" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F130" t="n">
         <v>28</v>
@@ -4097,7 +4097,7 @@
         <v>16</v>
       </c>
       <c r="E131" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F131" t="n">
         <v>15</v>
@@ -4131,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F132" t="n">
         <v>6</v>
@@ -4161,7 +4161,7 @@
         <v>19</v>
       </c>
       <c r="E133" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F133" t="n">
         <v>28</v>
@@ -4195,7 +4195,7 @@
         <v>20</v>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F134" t="n">
         <v>5</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F135" t="n">
         <v>22</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>14</v>
       </c>
       <c r="E137" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F137" t="n">
         <v>8</v>
@@ -4303,7 +4303,7 @@
         <v>30</v>
       </c>
       <c r="E138" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F138" t="n">
         <v>20</v>
@@ -4333,7 +4333,7 @@
         <v>20</v>
       </c>
       <c r="E139" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>22</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F140" t="n">
         <v>21</v>
@@ -4397,7 +4397,7 @@
         <v>25</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F141" t="n">
         <v>3</v>
@@ -4443,7 +4443,7 @@
         <v>16</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F143" t="n">
         <v>-2</v>
@@ -4513,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>15</v>
       </c>
       <c r="E147" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F147" t="n">
         <v>15</v>
@@ -4573,7 +4573,7 @@
         <v>21</v>
       </c>
       <c r="E148" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F148" t="n">
         <v>30</v>
@@ -4603,7 +4603,7 @@
         <v>26</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F149" t="n">
         <v>13</v>
@@ -4629,7 +4629,7 @@
         <v>15</v>
       </c>
       <c r="E150" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F150" t="n">
         <v>32</v>
@@ -4685,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="E152" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="E153" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
         <v>2</v>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>24</v>
       </c>
       <c r="E156" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>26</v>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F157" t="n">
         <v>68</v>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>15</v>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F160" t="n">
         <v>51</v>
@@ -4925,7 +4925,7 @@
         <v>18</v>
       </c>
       <c r="E161" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F161" t="n">
         <v>36</v>
@@ -4955,7 +4955,7 @@
         <v>17</v>
       </c>
       <c r="E162" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="E163" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F163" t="n">
         <v>27</v>
@@ -5011,7 +5011,7 @@
         <v>19</v>
       </c>
       <c r="E164" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -5041,7 +5041,7 @@
         <v>20</v>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F167" t="n">
         <v>45</v>
@@ -5123,7 +5123,7 @@
         <v>18</v>
       </c>
       <c r="E168" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>17</v>
       </c>
       <c r="E173" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F173" t="n">
         <v>-6</v>
@@ -5277,7 +5277,7 @@
         <v>22</v>
       </c>
       <c r="E174" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F174" t="n">
         <v>21</v>
@@ -5331,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F176" t="n">
         <v>9</v>
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="E177" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F177" t="n">
         <v>14</v>
@@ -5395,7 +5395,7 @@
         <v>22</v>
       </c>
       <c r="E178" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F178" t="n">
         <v>17</v>
@@ -5421,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="E179" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F179" t="n">
         <v>37</v>
@@ -5451,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F180" t="n">
         <v>-5</v>
@@ -5481,7 +5481,7 @@
         <v>30</v>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F181" t="n">
         <v>42</v>
@@ -5507,7 +5507,7 @@
         <v>17</v>
       </c>
       <c r="E182" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -5561,7 +5561,7 @@
         <v>22</v>
       </c>
       <c r="E184" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F184" t="n">
         <v>25</v>
@@ -5587,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="E185" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F185" t="n">
         <v>32</v>
@@ -5613,7 +5613,7 @@
         <v>17</v>
       </c>
       <c r="E186" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -5643,7 +5643,7 @@
         <v>12</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F187" t="n">
         <v>4</v>
@@ -5669,7 +5669,7 @@
         <v>12</v>
       </c>
       <c r="E188" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F188" t="n">
         <v>19</v>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F189" t="n">
         <v>10</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F190" t="n">
         <v>15</v>
@@ -5759,7 +5759,7 @@
         <v>15</v>
       </c>
       <c r="E191" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F191" t="n">
         <v>28</v>
@@ -5785,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="E192" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F192" t="n">
         <v>15</v>
@@ -5819,7 +5819,7 @@
         <v>11</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F193" t="n">
         <v>6</v>
